--- a/backend/data/ki2.xlsx
+++ b/backend/data/ki2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE18A0-4420-4B6F-9CF4-E8CEAED5E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC1C2F-4D24-4630-B24D-C9F91E561224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02EF117C-553B-4DD7-84CE-F60C11302335}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,30 +569,30 @@
       </c>
       <c r="E2" s="3" t="str">
         <f ca="1">RANDBETWEEN(10000007,10000015)&amp;""</f>
-        <v>10000007</v>
+        <v>10000008</v>
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015)</f>
-        <v>10000009,10000009,10000007</v>
+        <v>10000012,10000015,10000010</v>
       </c>
       <c r="G2" s="4">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,X1_07,2024-01-02T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_06,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,H1_01,2024-02-01T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_03,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_07,2024-02-02T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_03,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_05,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -609,31 +609,31 @@
         <v>2350000</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E26" ca="1" si="0">RANDBETWEEN(10000007,10000015)&amp;""</f>
-        <v>10000009</v>
+        <f t="shared" ref="E3:E7" ca="1" si="0">RANDBETWEEN(10000007,10000015)&amp;""</f>
+        <v>10000014</v>
       </c>
       <c r="F3" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015)</f>
-        <v>10000014,10000010,10000014</v>
+        <v>10000009,10000010,10000013</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" ref="H3:H4" ca="1" si="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,X1_05,2024-01-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_07,2024-01-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:K16" ca="1" si="2">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_05,2024-02-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <f t="shared" ref="I3:K7" ca="1" si="2">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
+        <v>HOUR_10_TO_12,H1_09,2024-02-01T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_10_TO_12,H1_08,2024-02-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_02,2024-02-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_7_TO_9,H1_03,2024-02-02T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_03,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10000007</v>
+        <v>10000013</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4">
@@ -659,7 +659,7 @@
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HOUR_10_TO_12,X1_05,2024-01-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_04,2024-01-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -680,30 +680,30 @@
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10000014</v>
+        <v>10000013</v>
       </c>
       <c r="F5" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015)</f>
-        <v>10000012,10000007,10000011</v>
+        <v>10000011,10000009,10000013</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" ref="H5:H12" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,X1_05,2024-01-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <f t="shared" ref="H5:H7" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
+        <v>HOUR_1_TO_3,X1_03,2024-01-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I5" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,H1_02,2024-02-06T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_02,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_7_TO_9,H1_06,2024-02-02T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_03,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_4_TO_6,H1_09,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_02,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,30 +721,30 @@
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10000012</v>
+        <v>10000014</v>
       </c>
       <c r="F6" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015)</f>
-        <v>10000013,10000014,10000009</v>
+        <v>10000015,10000011,10000013</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_4_TO_6,X1_08,2024-01-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_03,2024-01-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_4_TO_6,H1_06,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-02T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_7_TO_9,H1_07,2024-02-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_02,2024-02-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -762,30 +762,30 @@
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10000012</v>
+        <v>10000009</v>
       </c>
       <c r="F7" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015) &amp; "," &amp; RANDBETWEEN(10000007, 10000015)</f>
-        <v>10000007,10000008,10000008</v>
+        <v>10000015,10000011,10000013</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_4_TO_6,X1_08,2024-01-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_01,2024-01-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_10_TO_12,H1_02,2024-02-06T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_01,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J7" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_06,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-07T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HOUR_4_TO_6,H1_07,2024-02-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
   </sheetData>
